--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/3. 조건부 서식/거래처 리스트.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/3. 조건부 서식/거래처 리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbut\Desktop\예제\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\3. 조건부 서식\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAB05E5-6D59-41C9-8758-FD5A1188950D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2420A54D-4F17-4646-ABAC-6A8A8AB1F370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22188" yWindow="3132" windowWidth="21180" windowHeight="16692" xr2:uid="{181CF29E-6931-42C7-9ED7-103DBEDB84EF}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{181CF29E-6931-42C7-9ED7-103DBEDB84EF}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,10 @@
   <definedNames>
     <definedName name="anscount" hidden="1">1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -217,7 +206,26 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -550,20 +558,20 @@
   <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8984375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:6" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:6" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -572,14 +580,14 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="2:6" ht="19.8" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -596,126 +604,126 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -727,6 +735,14 @@
     <mergeCell ref="B3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B6:F28">
+    <cfRule type="expression" priority="2">
+      <formula>$B6&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>